--- a/captcha/vtu_result.xlsx
+++ b/captcha/vtu_result.xlsx
@@ -549,7 +549,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.7109375" customWidth="1" min="1" max="1"/>
     <col width="15.7109375" customWidth="1" min="2" max="2"/>
